--- a/public/xlsx/spmb.xlsx
+++ b/public/xlsx/spmb.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F07A28-9C13-43F8-93DC-3DD049A6D0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Pendaftar" state="visible" r:id="rId4"/>
+    <sheet name="Pendaftar" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -100,22 +104,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,8 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,55 +481,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" customWidth="1"/>
+    <col min="13" max="13" width="29.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -564,6 +596,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>